--- a/parse/parse_info.xlsx
+++ b/parse/parse_info.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="144">
   <si>
     <t>damage</t>
   </si>
@@ -143,19 +143,10 @@
     <t>ja_miss</t>
   </si>
   <si>
-    <t>When using the report feature, these fields report overall and individual count and average by spell name. In the display, these fields only display the overall count, average, and damage.</t>
-  </si>
-  <si>
-    <t>shield_index</t>
-  </si>
-  <si>
     <t>Adds sub equipment to the player name for main character when recording defensive stats. Use with caution: will cause slight lag the first time you are hit.</t>
   </si>
   <si>
     <t>record</t>
-  </si>
-  <si>
-    <t>Records party members, allies, fellows, and pets only if set to true.</t>
   </si>
   <si>
     <t>label</t>
@@ -313,12 +304,6 @@
     </r>
   </si>
   <si>
-    <t>Determines what constitutes a person showing up in a display box (offense: they've dealt damage, defense: they've been attacked). Also determines the order players are displayed (by most damage, or most attacks received).</t>
-  </si>
-  <si>
-    <t>Toggles display on/off. Display names: melee, ranged, magic, defense</t>
-  </si>
-  <si>
     <t>export</t>
   </si>
   <si>
@@ -334,9 +319,6 @@
     <t>Only appears under "SC(player name)" players</t>
   </si>
   <si>
-    <t>Assigns player or monster a new name for NEW incoming data. Always rename the original name, replacing any spaces with a "_"</t>
-  </si>
-  <si>
     <t>//parse report ws t arcane</t>
   </si>
   <si>
@@ -355,9 +337,6 @@
     <t>//parse show defense</t>
   </si>
   <si>
-    <t>Adds string to monster filters. String does not need to be an exact match. Note that monster names use "_" instead of spaces.</t>
-  </si>
-  <si>
     <t>//parse export apple_pie</t>
   </si>
   <si>
@@ -397,9 +376,6 @@
     <t>multi</t>
   </si>
   <si>
-    <t>When using the report feature, reports the tally and % for each multi-hit possibility (1-8). In the display, only displays the average number of hits per round.</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
@@ -415,9 +391,6 @@
     <t>autoexport_interval</t>
   </si>
   <si>
-    <t>How often autoexport will export data.</t>
-  </si>
-  <si>
     <t>Automatically exports data to xml file every 500 intervals. Use again to turn function off.</t>
   </si>
   <si>
@@ -431,6 +404,94 @@
   </si>
   <si>
     <t>Hits that were taken by normal melee hits</t>
+  </si>
+  <si>
+    <t>When using the report feature, reports the tally and % for each multi-hit possibility (1-8); dual wield is split and averaged and ranged is currently not supported. In the display, only displays the average number of hits per round.</t>
+  </si>
+  <si>
+    <t>When using the report feature, these fields report overall and individual count and average by spell name. In the display, these fields only display the overall count, average, and damage. Ws_miss and ja_miss are currently not supported in report.</t>
+  </si>
+  <si>
+    <t>string handling</t>
+  </si>
+  <si>
+    <t>//parse filter add !bhata</t>
+  </si>
+  <si>
+    <t>//parse filter add ^warder_of_courage</t>
+  </si>
+  <si>
+    <t>Adds wildcard string to monster filters. Not case-sensitive. Note that monster names use "_" instead of spaces and exclude commas.</t>
+  </si>
+  <si>
+    <t>^ before a string will only include whole matches. Not case-sensitive.</t>
+  </si>
+  <si>
+    <t>! before a string will exclude any wildcard matches. Not case-sensitive.</t>
+  </si>
+  <si>
+    <t>list</t>
+  </si>
+  <si>
+    <t>[mobs/players]</t>
+  </si>
+  <si>
+    <t>Lists all mobs/players currently registered in the data.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Toggles display on/off. Display names: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>melee, ranged, magic, defense</t>
+    </r>
+  </si>
+  <si>
+    <t>Assigns player or monster a new name for NEW data. Always rename the original name, replace any spaces with a "_", and exclude commas.</t>
+  </si>
+  <si>
+    <t>index_shield</t>
+  </si>
+  <si>
+    <t>index_reprisal</t>
+  </si>
+  <si>
+    <t>index_palisade</t>
+  </si>
+  <si>
+    <t>index_battuta</t>
+  </si>
+  <si>
+    <t>Adds an "R" after player name if Reprisal is detected (tracked using buff gain/loss event).</t>
+  </si>
+  <si>
+    <t>Adds a "B" after player name if Battuta is detected (tracked using buff gain/loss event).</t>
+  </si>
+  <si>
+    <t>Adds a "P" after player name if Palisade is detected (tracked using buff gain/loss event).</t>
+  </si>
+  <si>
+    <t>Records party members, allies, trusts, fellows, and pets only if set to true.</t>
+  </si>
+  <si>
+    <t>Determines what constitutes a person showing up in a display box (offense: they've dealt damage, defense: they've been attacked). Also determines the order players are displayed.</t>
+  </si>
+  <si>
+    <t>How often autoexport will export data. For example, every 500 registerable actions.</t>
+  </si>
+  <si>
+    <t>!^ before a string will only exclude whole matches. Not case-sensitive.</t>
+  </si>
+  <si>
+    <t>//parse filter add !^schah</t>
   </si>
 </sst>
 </file>
@@ -484,7 +545,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -492,21 +553,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -521,21 +589,58 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -544,27 +649,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -846,832 +930,969 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20" style="7" customWidth="1"/>
+    <col min="1" max="1" width="20" style="3" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="15.140625" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" customWidth="1"/>
     <col min="7" max="7" width="62" customWidth="1"/>
-    <col min="8" max="8" width="32.28515625" customWidth="1"/>
+    <col min="8" max="8" width="35" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="A1" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C4" s="20" t="s">
         <v>68</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>71</v>
       </c>
       <c r="D4" s="20"/>
       <c r="E4" s="20"/>
       <c r="F4" s="20"/>
       <c r="G4" s="20"/>
       <c r="H4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>73</v>
+      <c r="A5" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="D5" s="20"/>
       <c r="E5" s="20"/>
       <c r="F5" s="20"/>
       <c r="G5" s="20"/>
       <c r="H5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
-      <c r="B6" s="11" t="s">
-        <v>74</v>
+      <c r="A6" s="23"/>
+      <c r="B6" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
       <c r="F6" s="20"/>
       <c r="G6" s="20"/>
       <c r="H6" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
-      <c r="B7" s="11" t="s">
-        <v>72</v>
+      <c r="A7" s="23"/>
+      <c r="B7" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
       <c r="G7" s="20"/>
       <c r="H7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>77</v>
+      <c r="A8" s="23"/>
+      <c r="B8" s="24" t="s">
+        <v>121</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
       <c r="H8" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="11"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="24"/>
       <c r="C9" s="20" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="D9" s="20"/>
       <c r="E9" s="20"/>
       <c r="F9" s="20"/>
       <c r="G9" s="20"/>
+      <c r="H9" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" s="11"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="24"/>
       <c r="C10" s="20" t="s">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
       <c r="F10" s="20"/>
       <c r="G10" s="20"/>
+      <c r="H10" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>80</v>
+      <c r="A11" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>128</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
       <c r="F11" s="20"/>
       <c r="G11" s="20"/>
-      <c r="H11" t="s">
-        <v>105</v>
-      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>81</v>
+      <c r="A12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="20"/>
       <c r="G12" s="20"/>
       <c r="H12" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>81</v>
-      </c>
+      <c r="A13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="7"/>
       <c r="C13" s="20" t="s">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
       <c r="G13" s="20"/>
-      <c r="H13" t="s">
-        <v>120</v>
-      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>81</v>
-      </c>
+      <c r="A14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="7"/>
       <c r="C14" s="20" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
       <c r="G14" s="20"/>
-      <c r="H14" t="s">
-        <v>104</v>
-      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>112</v>
+      <c r="A15" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="20"/>
       <c r="G15" s="20"/>
       <c r="H15" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="B16" s="11"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="C16" s="20" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="20"/>
       <c r="G16" s="20"/>
-    </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-    </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-    </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="H16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B20" s="7"/>
+      <c r="C20" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="12"/>
-    </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="16"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="26" t="s">
-        <v>41</v>
-      </c>
+      <c r="A21" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="26"/>
       <c r="C21" s="26"/>
       <c r="D21" s="26"/>
       <c r="E21" s="26"/>
       <c r="F21" s="26"/>
       <c r="G21" s="26"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="H21" s="26"/>
+    </row>
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+    </row>
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+    </row>
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="11"/>
+    </row>
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+    </row>
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+    </row>
+    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+    </row>
+    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+    </row>
+    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+      <c r="B31" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B32" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+      <c r="B33" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B34" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-    </row>
-    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+      <c r="B35" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+    </row>
+    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+    </row>
+    <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="26"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="13"/>
+      <c r="D39" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F39" s="13"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="28"/>
+      <c r="B40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F40" s="14"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="28"/>
+      <c r="B41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="14"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="28"/>
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="14"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="28"/>
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="14"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="28"/>
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="14"/>
+    </row>
+    <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="28"/>
+      <c r="B45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="14"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="B46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="14"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="28"/>
+      <c r="B47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="14"/>
+      <c r="G47" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="28"/>
+      <c r="B48" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="14"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="14"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="28"/>
+      <c r="B50" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F50" s="14"/>
+      <c r="G50" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="28"/>
+      <c r="B51" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51" s="14"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F51" s="13"/>
+      <c r="G51" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="28"/>
+      <c r="B52" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" s="14"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F52" s="13"/>
+      <c r="G52" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="28"/>
+      <c r="B53" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" s="14"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F53" s="13"/>
+      <c r="G53" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="28"/>
+      <c r="B54" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" s="14"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F54" s="13"/>
+      <c r="G54" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-    </row>
-    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-    </row>
-    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="24"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F31" s="8" t="s">
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="28"/>
+      <c r="B55" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F55" s="14"/>
+      <c r="G55" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="28"/>
+      <c r="B56" t="s">
+        <v>115</v>
+      </c>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="28"/>
+      <c r="B57" t="s">
+        <v>116</v>
+      </c>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="28"/>
+      <c r="B58" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="G58" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="28"/>
+      <c r="B59" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="G59" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B60" t="s">
+        <v>33</v>
+      </c>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F60" s="14"/>
+      <c r="G60" s="29" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="28"/>
+      <c r="B61" t="s">
+        <v>37</v>
+      </c>
+      <c r="C61" s="14"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="29"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="28"/>
+      <c r="B62" t="s">
+        <v>34</v>
+      </c>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F62" s="14"/>
+      <c r="G62" s="29"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="28"/>
+      <c r="B63" t="s">
+        <v>38</v>
+      </c>
+      <c r="C63" s="14"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="29"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="28"/>
+      <c r="B64" t="s">
+        <v>35</v>
+      </c>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="29"/>
+    </row>
+    <row r="65" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A65" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="G31" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B32" t="s">
-        <v>0</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
-      <c r="B33" t="s">
-        <v>2</v>
-      </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="17"/>
-      <c r="B34" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="17"/>
-      <c r="B35" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="17"/>
-      <c r="B36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
-      <c r="B37" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="17"/>
-      <c r="B38" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="1"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="B39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="17"/>
-      <c r="B40" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="17"/>
-      <c r="B41" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B42" t="s">
-        <v>13</v>
-      </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="17"/>
-      <c r="B43" t="s">
-        <v>14</v>
-      </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F43" s="1"/>
-      <c r="G43" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="17"/>
-      <c r="B44" t="s">
-        <v>20</v>
-      </c>
-      <c r="C44" s="1"/>
-      <c r="E44" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G44" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="17"/>
-      <c r="B45" t="s">
-        <v>16</v>
-      </c>
-      <c r="C45" s="1"/>
-      <c r="E45" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G45" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="17"/>
-      <c r="B46" t="s">
-        <v>15</v>
-      </c>
-      <c r="C46" s="1"/>
-      <c r="E46" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G46" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="17"/>
-      <c r="B47" t="s">
-        <v>17</v>
-      </c>
-      <c r="C47" s="1"/>
-      <c r="E47" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G47" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="17"/>
-      <c r="B48" t="s">
-        <v>18</v>
-      </c>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F48" s="1"/>
-      <c r="G48" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="17"/>
-      <c r="B49" t="s">
-        <v>124</v>
-      </c>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="17"/>
-      <c r="B50" t="s">
-        <v>125</v>
-      </c>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="17"/>
-      <c r="B51" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G51" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="17"/>
-      <c r="B52" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G52" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B53" t="s">
-        <v>33</v>
-      </c>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F53" s="1"/>
-      <c r="G53" s="18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="17"/>
-      <c r="B54" t="s">
-        <v>37</v>
-      </c>
-      <c r="C54" s="1"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="18"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="17"/>
-      <c r="B55" t="s">
-        <v>34</v>
-      </c>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F55" s="1"/>
-      <c r="G55" s="18"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="17"/>
-      <c r="B56" t="s">
-        <v>38</v>
-      </c>
-      <c r="C56" s="1"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="18"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="17"/>
-      <c r="B57" t="s">
-        <v>35</v>
-      </c>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="18"/>
-    </row>
-    <row r="58" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A58" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="B58" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="F58" s="1"/>
-      <c r="G58" s="15" t="s">
-        <v>116</v>
+      <c r="B65" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="10" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="A17:H18"/>
-    <mergeCell ref="A29:H30"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="A53:A57"/>
-    <mergeCell ref="G53:G57"/>
+  <mergeCells count="39">
+    <mergeCell ref="A60:A64"/>
+    <mergeCell ref="G60:G64"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A42:A52"/>
-    <mergeCell ref="A32:A38"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="A49:A59"/>
+    <mergeCell ref="A39:A45"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="A36:H37"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C17:G17"/>
     <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="A21:H22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
